--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720196.0408356502</v>
+        <v>740240.38203944</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>606553.2040797188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7049968.604688389</v>
+        <v>7610401.898468659</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>100.5603279520351</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>199.192316355265</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -865,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>125.1716544454844</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>85.4311693664808</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>71.97386945449256</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1060,13 +1062,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>119.8634463900541</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,13 +1110,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>179.0861311466706</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>115.9643397981321</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>29.74512849779529</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1294,13 +1296,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>35.20092700998688</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1370,19 +1372,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>111.3949821908238</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>145.426146011916</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480023263</v>
+        <v>3.139541480022616</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>207.0877102383934</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>102.8928199565019</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1619,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1670,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1774,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>14.14416275345401</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>82.62483121292163</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2716,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>2.292363805516792</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>153.2006427344284</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>122.9742767430585</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>131.9969996527466</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3724,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3749,10 +3751,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>354.9648390533865</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3800,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>41.38702488331079</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022616</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3983,19 +3985,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>193.1554422558252</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>145.8387674910473</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>109.1426757626855</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>640.7849986069735</v>
+        <v>936.2280884669775</v>
       </c>
       <c r="C2" t="n">
-        <v>606.682929830801</v>
+        <v>498.0856156504008</v>
       </c>
       <c r="D2" t="n">
-        <v>574.8135490456496</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E2" t="n">
-        <v>545.0792082443488</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F2" t="n">
-        <v>343.8748482895357</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>343.8748482895357</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L2" t="n">
-        <v>1167.464966128475</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N2" t="n">
-        <v>1167.464966128475</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2582.420166112559</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2517.167459510636</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U2" t="n">
-        <v>2257.945156827654</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V2" t="n">
-        <v>1895.32820676148</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="W2" t="n">
-        <v>1490.472752172513</v>
+        <v>2189.956246072921</v>
       </c>
       <c r="X2" t="n">
-        <v>1071.330288751824</v>
+        <v>1770.813782652232</v>
       </c>
       <c r="Y2" t="n">
-        <v>663.0441650514773</v>
+        <v>1362.527658951885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>379.3030186989643</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K3" t="n">
-        <v>1056.76860364177</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="L3" t="n">
-        <v>1056.76860364177</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="M3" t="n">
-        <v>1056.76860364177</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="N3" t="n">
-        <v>1056.76860364177</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="O3" t="n">
-        <v>1056.76860364177</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="P3" t="n">
-        <v>1177.245516579485</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1199.63323734668</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>1027.071525829905</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>861.1935330314275</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>691.4355292821647</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>514.7284752439209</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>349.1372002697486</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>209.2350259601232</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2715.81686534297</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2556.575496640966</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2310.696050219422</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U4" t="n">
-        <v>2032.263049472527</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V4" t="n">
-        <v>1745.307541342957</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1618.871526751559</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1618.871526751559</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1391.451856065667</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>236.7445945665695</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C5" t="n">
-        <v>202.6425257903969</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>170.7731450052455</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>141.0388042039447</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>666.6506660403358</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>666.6506660403358</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>666.6506660403358</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>666.6506660403358</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2517.167459510636</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.945156827654</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1895.32820676148</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>1490.472752172513</v>
+        <v>2234.742998128393</v>
       </c>
       <c r="X5" t="n">
-        <v>1071.330288751824</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y5" t="n">
-        <v>663.0441650514773</v>
+        <v>1407.314411007357</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>1231.207939253532</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>1231.207939253532</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>1892.04799379531</v>
       </c>
       <c r="M6" t="n">
-        <v>54.74469373275195</v>
+        <v>1892.04799379531</v>
       </c>
       <c r="N6" t="n">
-        <v>732.2102786755574</v>
+        <v>1892.04799379531</v>
       </c>
       <c r="O6" t="n">
-        <v>1409.675863618363</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="P6" t="n">
-        <v>1600.811677117221</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>742.8207098557364</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>570.2589983389613</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>404.381005540484</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>283.3068172677021</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>283.3068172677021</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>1977.98450317831</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.450753927203</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.058999260615</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.6393285747235</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>557.1331247908106</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>523.0310560146379</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D8" t="n">
-        <v>491.1616752294865</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>461.4273344281857</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>344.2916376623957</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>344.2916376623957</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>732.2102786755574</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>1382.303516751987</v>
+        <v>687.540662806093</v>
       </c>
       <c r="M8" t="n">
-        <v>2059.769101694793</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>2737.234686637598</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="O8" t="n">
-        <v>2737.234686637598</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2653.582812821435</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2433.515585694473</v>
+        <v>2640.01524209022</v>
       </c>
       <c r="U8" t="n">
-        <v>2174.293283011491</v>
+        <v>2640.01524209022</v>
       </c>
       <c r="V8" t="n">
-        <v>1811.676332945317</v>
+        <v>2640.01524209022</v>
       </c>
       <c r="W8" t="n">
-        <v>1406.82087835635</v>
+        <v>2639.200191541658</v>
       </c>
       <c r="X8" t="n">
-        <v>987.678414935661</v>
+        <v>2220.057728120968</v>
       </c>
       <c r="Y8" t="n">
-        <v>579.3922912353144</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>80.80836689320955</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>80.80836689320955</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>80.80836689320955</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M9" t="n">
-        <v>758.2739518360149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N9" t="n">
-        <v>1435.73953677882</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O9" t="n">
-        <v>1600.811677117221</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="P9" t="n">
-        <v>1600.811677117221</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1133.802854344633</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>961.2411428278582</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>795.3631500293809</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2671.404303635552</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2635.847811706272</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2357.414810959378</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2070.459302829808</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1798.4328984161</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1553.041143749512</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1325.62147306362</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.2916376623957</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>344.2916376623957</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>344.2916376623957</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>344.2916376623957</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>344.2916376623957</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>344.2916376623957</v>
+        <v>383.3170432484973</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171359</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>424.1063803693451</v>
       </c>
       <c r="K11" t="n">
-        <v>54.74469373275195</v>
+        <v>1258.456672327523</v>
       </c>
       <c r="L11" t="n">
-        <v>732.2102786755574</v>
+        <v>2333.516638580382</v>
       </c>
       <c r="M11" t="n">
-        <v>1409.675863618363</v>
+        <v>2333.516638580382</v>
       </c>
       <c r="N11" t="n">
-        <v>2087.141448561168</v>
+        <v>2333.516638580382</v>
       </c>
       <c r="O11" t="n">
-        <v>2087.141448561168</v>
+        <v>3313.696305150689</v>
       </c>
       <c r="P11" t="n">
-        <v>2087.141448561168</v>
+        <v>4142.006179984085</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="T11" t="n">
-        <v>2624.714502606463</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.492199923479</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V11" t="n">
-        <v>2002.875249857306</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W11" t="n">
-        <v>1598.019795268339</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>1178.87733184765</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>770.5912081473035</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467886</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.3950942933419</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202956</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364572</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J12" t="n">
-        <v>80.80836689320955</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="K12" t="n">
-        <v>80.80836689320955</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="L12" t="n">
-        <v>245.8805072316101</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="M12" t="n">
-        <v>923.3460921744155</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="N12" t="n">
-        <v>1600.811677117221</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="O12" t="n">
-        <v>1600.811677117221</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="P12" t="n">
-        <v>1600.811677117221</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>742.8207098557364</v>
+        <v>781.8461154418374</v>
       </c>
       <c r="C13" t="n">
-        <v>570.2589983389613</v>
+        <v>609.2844039250623</v>
       </c>
       <c r="D13" t="n">
-        <v>404.381005540484</v>
+        <v>443.406411126585</v>
       </c>
       <c r="E13" t="n">
-        <v>234.6230017912213</v>
+        <v>273.6484073773223</v>
       </c>
       <c r="F13" t="n">
-        <v>57.91594775297747</v>
+        <v>96.94135333907846</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835434</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2490.74511363892</v>
+        <v>2529.770519225021</v>
       </c>
       <c r="T13" t="n">
-        <v>2244.865667217376</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>1966.432666470481</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1679.477158340911</v>
+        <v>1718.502563927012</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.450753927203</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.058999260615</v>
+        <v>1201.084404846716</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.6393285747235</v>
+        <v>973.6647341608245</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1561.476158282111</v>
+        <v>2188.014873871651</v>
       </c>
       <c r="C14" t="n">
-        <v>1352.296652990805</v>
+        <v>1749.872401055075</v>
       </c>
       <c r="D14" t="n">
-        <v>916.3868681652491</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>482.6121233235442</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>54.74469373275195</v>
+        <v>784.2980852523734</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>382.9002538756373</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>928.1203912770316</v>
       </c>
       <c r="L14" t="n">
-        <v>1167.464966128475</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.464966128475</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="N14" t="n">
-        <v>1844.930551071281</v>
+        <v>3128.911340966338</v>
       </c>
       <c r="O14" t="n">
-        <v>2021.581835925947</v>
+        <v>4109.091007536645</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>4468.437738815718</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>4209.215436132735</v>
       </c>
       <c r="V14" t="n">
-        <v>2374.617736571424</v>
+        <v>3846.598486066561</v>
       </c>
       <c r="W14" t="n">
-        <v>1969.762281982458</v>
+        <v>3441.743031477595</v>
       </c>
       <c r="X14" t="n">
-        <v>1969.762281982458</v>
+        <v>3022.600568056906</v>
       </c>
       <c r="Y14" t="n">
-        <v>1561.476158282111</v>
+        <v>2614.314444356559</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467886</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.3950942933419</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202956</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364572</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="K15" t="n">
-        <v>54.74469373275195</v>
+        <v>774.5036193892309</v>
       </c>
       <c r="L15" t="n">
-        <v>54.74469373275195</v>
+        <v>774.5036193892309</v>
       </c>
       <c r="M15" t="n">
-        <v>54.74469373275195</v>
+        <v>774.5036193892309</v>
       </c>
       <c r="N15" t="n">
-        <v>54.74469373275195</v>
+        <v>774.5036193892309</v>
       </c>
       <c r="O15" t="n">
-        <v>499.7799316366797</v>
+        <v>774.5036193892309</v>
       </c>
       <c r="P15" t="n">
-        <v>1177.245516579485</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="Q15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>742.8207098557364</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>570.2589983389613</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>404.381005540484</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E16" t="n">
-        <v>234.6230017912213</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>220.3359687069243</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>322.3322228538037</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>182.4300485441782</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835434</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2649.986482340924</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2490.74511363892</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T16" t="n">
-        <v>2244.865667217376</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U16" t="n">
-        <v>1966.432666470481</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V16" t="n">
-        <v>1679.477158340911</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.450753927203</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X16" t="n">
-        <v>1162.058999260615</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.6393285747235</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5494,22 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,13 +5518,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5595,22 +5597,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1737.537409152261</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1737.537409152261</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.537409152261</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O18" t="n">
-        <v>1737.537409152261</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1737.537409152261</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>5077.485521609701</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,19 +6229,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>1039.550377927472</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2114.610344180331</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M26" t="n">
-        <v>3271.658179390882</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
@@ -6306,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1017.756527079655</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>845.1948155628801</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
         <v>842.8792965674086</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.575145798642</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6643,16 +6645,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
         <v>2117.975449367836</v>
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3486.780615022739</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3314.218903505964</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>3148.340910707486</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>2978.582906958224</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2801.87585291998</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2636.284577945808</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4988.825572384377</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4710.392571637482</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4423.437063507913</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>4151.410659094205</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3906.018904427618</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3678.599233741726</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,37 +6925,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.913654892426</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L39" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M39" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N39" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2538.261260176947</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>924.4292234000122</v>
+        <v>2188.014873871651</v>
       </c>
       <c r="C41" t="n">
-        <v>924.4292234000122</v>
+        <v>1749.872401055075</v>
       </c>
       <c r="D41" t="n">
-        <v>488.5194385744568</v>
+        <v>1313.962616229519</v>
       </c>
       <c r="E41" t="n">
-        <v>54.74469373275195</v>
+        <v>880.1878713878141</v>
       </c>
       <c r="F41" t="n">
-        <v>54.74469373275195</v>
+        <v>452.3204417970218</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717715</v>
       </c>
       <c r="K41" t="n">
-        <v>704.837931809182</v>
+        <v>1363.375078729949</v>
       </c>
       <c r="L41" t="n">
-        <v>1382.303516751987</v>
+        <v>1363.375078729949</v>
       </c>
       <c r="M41" t="n">
-        <v>1382.303516751987</v>
+        <v>2520.422913940501</v>
       </c>
       <c r="N41" t="n">
-        <v>2059.769101694793</v>
+        <v>2520.422913940501</v>
       </c>
       <c r="O41" t="n">
-        <v>2737.234686637598</v>
+        <v>3144.542240397632</v>
       </c>
       <c r="P41" t="n">
-        <v>2737.234686637598</v>
+        <v>3972.852115231028</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189623</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S41" t="n">
-        <v>2653.582812821435</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="T41" t="n">
-        <v>2433.515585694473</v>
+        <v>4468.437738815718</v>
       </c>
       <c r="U41" t="n">
-        <v>2174.293283011491</v>
+        <v>4209.215436132735</v>
       </c>
       <c r="V41" t="n">
-        <v>1811.676332945317</v>
+        <v>3846.598486066561</v>
       </c>
       <c r="W41" t="n">
-        <v>1769.871257305609</v>
+        <v>3441.743031477595</v>
       </c>
       <c r="X41" t="n">
-        <v>1350.72879388492</v>
+        <v>3022.600568056906</v>
       </c>
       <c r="Y41" t="n">
-        <v>1350.72879388492</v>
+        <v>2614.314444356559</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>3531.436949455163</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>3424.980488291806</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>3329.890199438359</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>3235.769784765313</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>3152.385946381474</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>3067.000856647658</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>3025.265204463871</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>3051.328877624328</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>3375.887202590541</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216264</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216264</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216264</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216264</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216264</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216264</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>4571.332187848339</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>4625.049528391062</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>4494.870884721664</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>4318.534337721632</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>4119.416819783632</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>3934.094065516826</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>3779.226629755706</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>3652.740850534927</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>905.2407308096831</v>
+        <v>781.8461154418374</v>
       </c>
       <c r="C43" t="n">
-        <v>732.679019292908</v>
+        <v>609.2844039250623</v>
       </c>
       <c r="D43" t="n">
-        <v>566.8010264944307</v>
+        <v>443.406411126585</v>
       </c>
       <c r="E43" t="n">
-        <v>397.0430227451681</v>
+        <v>273.6484073773223</v>
       </c>
       <c r="F43" t="n">
-        <v>220.3359687069243</v>
+        <v>96.94135333907846</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835434</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2653.165134592867</v>
+        <v>2529.770519225021</v>
       </c>
       <c r="T43" t="n">
-        <v>2407.285688171322</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2128.852687424428</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1841.897179294858</v>
+        <v>1718.502563927012</v>
       </c>
       <c r="W43" t="n">
-        <v>1569.87077488115</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1324.479020214562</v>
+        <v>1201.084404846716</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.05934952867</v>
+        <v>973.6647341608245</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1124.32024807686</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>686.1777752602839</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>250.2679904347283</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>55.16148310561195</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>55.16148310561195</v>
+        <v>784.2980852523734</v>
       </c>
       <c r="G44" t="n">
-        <v>55.16148310561195</v>
+        <v>382.9002538756373</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="K44" t="n">
-        <v>489.9993811856698</v>
+        <v>928.1203912770316</v>
       </c>
       <c r="L44" t="n">
-        <v>489.9993811856698</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M44" t="n">
-        <v>1167.464966128475</v>
+        <v>2164.362573827326</v>
       </c>
       <c r="N44" t="n">
-        <v>1167.464966128475</v>
+        <v>2164.362573827326</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>3144.542240397632</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3972.852115231028</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189623</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V44" t="n">
-        <v>2374.617736571424</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>1969.762281982458</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>1550.619818561768</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>1550.619818561768</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1580.166670150082</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1473.710208986724</v>
+        <v>493.4853831467886</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.619920133277</v>
+        <v>398.3950942933419</v>
       </c>
       <c r="E45" t="n">
-        <v>1284.499505460231</v>
+        <v>304.2746796202956</v>
       </c>
       <c r="F45" t="n">
-        <v>1201.115667076393</v>
+        <v>220.8908412364572</v>
       </c>
       <c r="G45" t="n">
-        <v>1115.730577342577</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H45" t="n">
-        <v>1073.994925158789</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="I45" t="n">
-        <v>1100.058598319247</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J45" t="n">
-        <v>1424.616923285459</v>
+        <v>396.5477556863887</v>
       </c>
       <c r="K45" t="n">
-        <v>2079.322969911183</v>
+        <v>396.5477556863887</v>
       </c>
       <c r="L45" t="n">
-        <v>2079.322969911183</v>
+        <v>396.5477556863887</v>
       </c>
       <c r="M45" t="n">
-        <v>2079.322969911183</v>
+        <v>396.5477556863887</v>
       </c>
       <c r="N45" t="n">
-        <v>2079.322969911183</v>
+        <v>396.5477556863887</v>
       </c>
       <c r="O45" t="n">
-        <v>2079.322969911183</v>
+        <v>396.5477556863887</v>
       </c>
       <c r="P45" t="n">
-        <v>2079.322969911183</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="Q45" t="n">
-        <v>2620.061908543259</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R45" t="n">
-        <v>2737.234686637598</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2673.779249085981</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2543.600605416583</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2367.264058416551</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2168.14654047855</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>1982.823786211744</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1827.956350450624</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1701.470571229845</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>905.2407308096831</v>
+        <v>2759.921372162865</v>
       </c>
       <c r="C46" t="n">
-        <v>732.679019292908</v>
+        <v>2587.35966064609</v>
       </c>
       <c r="D46" t="n">
-        <v>566.8010264944307</v>
+        <v>2477.114533613074</v>
       </c>
       <c r="E46" t="n">
-        <v>397.0430227451681</v>
+        <v>2477.114533613074</v>
       </c>
       <c r="F46" t="n">
-        <v>220.3359687069243</v>
+        <v>2300.40747957483</v>
       </c>
       <c r="G46" t="n">
-        <v>54.74469373275195</v>
+        <v>2300.40747957483</v>
       </c>
       <c r="H46" t="n">
-        <v>54.74469373275195</v>
+        <v>2160.505305265205</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>2071.84535603988</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>2158.42504120457</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>2433.183495775706</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>2851.393377543667</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>3310.87724472458</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>3753.136047882224</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>4172.805297108006</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>4520.312191078347</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>4667.087144648051</v>
       </c>
       <c r="S46" t="n">
-        <v>2653.165134592867</v>
+        <v>4507.845775946048</v>
       </c>
       <c r="T46" t="n">
-        <v>2407.285688171322</v>
+        <v>4261.966329524504</v>
       </c>
       <c r="U46" t="n">
-        <v>2128.852687424428</v>
+        <v>3983.533328777609</v>
       </c>
       <c r="V46" t="n">
-        <v>1841.897179294858</v>
+        <v>3696.57782064804</v>
       </c>
       <c r="W46" t="n">
-        <v>1569.87077488115</v>
+        <v>3424.551416234331</v>
       </c>
       <c r="X46" t="n">
-        <v>1324.479020214562</v>
+        <v>3179.159661567744</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.05934952867</v>
+        <v>2951.739990881852</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593994</v>
+        <v>138.4873165037804</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>121.6938514522378</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8216,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>618.0868407147311</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>193.0664782816748</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8453,22 +8455,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>656.6598364408385</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,25 +8537,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>166.7395356953541</v>
+        <v>466.3240083888435</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>333.6730111621126</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>485.7971447710838</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8772,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>166.7395356953541</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>585.2666246525605</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>446.229598763996</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,16 +9166,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>935.0031416802861</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,25 +9245,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.2456490882098</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,22 +9877,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>507.105909296742</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9954,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>656.6598364408385</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>630.4235620779109</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>162.8103194923588</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>178.4356412673392</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>305.8360165328638</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>106.471572664868</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>111.2039336442373</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444073</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>226.6733378500176</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>328.6578670207981</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23546,10 +23548,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>122.4480280049973</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>229.4233680290254</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>42.41901400958221</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>359.4198751597662</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>236.2815551374625</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>110.7913121651059</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>55.07653710780698</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>655718.3712342239</v>
+        <v>654924.4169180174</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>655718.3712342239</v>
+        <v>654924.4169180174</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>655718.3712342239</v>
+        <v>654924.4169180174</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>438853.9280625126</v>
+        <v>631445.8733329701</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>438853.9280625126</v>
+        <v>631445.87333297</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>438853.9280625126</v>
+        <v>631445.87333297</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>438853.9280625126</v>
+        <v>631445.87333297</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335092.0749315052</v>
+        <v>335092.0749315053</v>
       </c>
       <c r="C2" t="n">
         <v>335092.0749315051</v>
@@ -26320,13 +26322,13 @@
         <v>335092.0749315051</v>
       </c>
       <c r="E2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678431</v>
       </c>
       <c r="F2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678431</v>
       </c>
       <c r="G2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.9900858452</v>
       </c>
       <c r="H2" t="n">
         <v>329285.990085845</v>
@@ -26338,22 +26340,22 @@
         <v>329285.9900858451</v>
       </c>
       <c r="K2" t="n">
+        <v>329285.9900858451</v>
+      </c>
+      <c r="L2" t="n">
+        <v>329285.9900858451</v>
+      </c>
+      <c r="M2" t="n">
+        <v>329285.9900858451</v>
+      </c>
+      <c r="N2" t="n">
         <v>329285.990085845</v>
       </c>
-      <c r="L2" t="n">
-        <v>329285.990085845</v>
-      </c>
-      <c r="M2" t="n">
-        <v>329285.990085845</v>
-      </c>
-      <c r="N2" t="n">
-        <v>329285.9900858452</v>
-      </c>
       <c r="O2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678431</v>
       </c>
       <c r="P2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678431</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.7535717477</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.8091726081</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356905</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163104.0151867248</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="C4" t="n">
-        <v>163104.0151867248</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>163104.0151867248</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>53078.16272108944</v>
+        <v>76371.62315556084</v>
       </c>
       <c r="F4" t="n">
-        <v>53078.16272108945</v>
+        <v>76371.62315556084</v>
       </c>
       <c r="G4" t="n">
+        <v>81439.57146904286</v>
+      </c>
+      <c r="H4" t="n">
         <v>81439.57146904284</v>
-      </c>
-      <c r="H4" t="n">
-        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904281</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
@@ -26451,13 +26453,13 @@
         <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>53078.16272108945</v>
+        <v>76371.62315556084</v>
       </c>
       <c r="P4" t="n">
-        <v>53078.16272108945</v>
+        <v>76371.62315556084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232873</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232873</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232873</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232873</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-132573.0824646241</v>
+        <v>-128083.2364738557</v>
       </c>
       <c r="C6" t="n">
-        <v>96754.49250788882</v>
+        <v>95616.46211018902</v>
       </c>
       <c r="D6" t="n">
-        <v>96754.49250788882</v>
+        <v>95616.46211018902</v>
       </c>
       <c r="E6" t="n">
-        <v>119927.6987670182</v>
+        <v>10492.01715820585</v>
       </c>
       <c r="F6" t="n">
-        <v>119927.6987670181</v>
+        <v>161157.7707299535</v>
       </c>
       <c r="G6" t="n">
-        <v>7334.892212568244</v>
+        <v>141038.3708384017</v>
       </c>
       <c r="H6" t="n">
-        <v>170128.1800110097</v>
+        <v>170128.1800110096</v>
       </c>
       <c r="I6" t="n">
-        <v>170128.1800110097</v>
+        <v>170128.1800110098</v>
       </c>
       <c r="J6" t="n">
-        <v>-8917.078076642196</v>
+        <v>-4523.168706696422</v>
       </c>
       <c r="K6" t="n">
         <v>170128.1800110097</v>
@@ -26552,16 +26554,16 @@
         <v>170128.1800110097</v>
       </c>
       <c r="M6" t="n">
+        <v>44377.09167531927</v>
+      </c>
+      <c r="N6" t="n">
         <v>170128.1800110097</v>
       </c>
-      <c r="N6" t="n">
-        <v>170128.1800110098</v>
-      </c>
       <c r="O6" t="n">
-        <v>119927.6987670181</v>
+        <v>161157.7707299536</v>
       </c>
       <c r="P6" t="n">
-        <v>119927.6987670182</v>
+        <v>161157.7707299535</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.12624148567</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.611034877813</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990755</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877813</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877813</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990755</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>330.9903590252648</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>224.3964389396193</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>144.134485924087</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>338.1575859284035</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27667,16 +27669,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>328.8330305885844</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>48.19697732171605</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>90.22000922290081</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>307.6244154967522</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>188.1214263578965</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>208.2197249473424</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593994</v>
+        <v>138.4873165037804</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>121.6938514522378</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>618.0868407147311</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>193.0664782816748</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>656.6598364408385</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35255,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>166.7395356953541</v>
+        <v>466.3240083888435</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>333.6730111621126</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>485.7971447710838</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>166.7395356953541</v>
+        <v>964.1848977889939</v>
       </c>
       <c r="M12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>585.2666246525605</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>446.229598763996</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,16 +35886,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>935.0031416802861</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.2456490882098</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,22 +36597,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>507.105909296742</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36674,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>656.6598364408385</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>630.4235620779109</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>162.8103194923588</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>178.4356412673392</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>305.8360165328638</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960968</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>740240.38203944</v>
+        <v>739634.2944105432</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074005</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797188</v>
+        <v>606553.2040797153</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>361.6464633533253</v>
       </c>
       <c r="D2" t="n">
-        <v>100.5603279520351</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -828,10 +828,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>109.4519776932666</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -904,10 +904,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>154.8976684930133</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>71.97386945449256</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1062,7 +1062,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>203.2613507217563</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>179.0861311466706</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1138,10 +1138,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>131.7215346772602</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>29.74512849779529</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1296,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>120.1472970361157</v>
+        <v>24.62703520776616</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1384,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>272.1494839753895</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>145.426146011916</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022616</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1584,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1612,13 +1612,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>102.8928199565019</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>11.70291171695784</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>56.72042565247654</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.62483121292163</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2137,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>119.9348501475796</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2766,10 +2766,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>153.2006427344284</v>
+        <v>73.71535300152969</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -3000,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3009,10 +3009,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>54.66258501924847</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738366</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3435,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>103.3456594571955</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>354.9648390533865</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>175.447540846114</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>86.74508580040361</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022616</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>145.4261460119205</v>
       </c>
       <c r="U44" t="n">
-        <v>145.8387674910473</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4140,13 +4140,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>109.1426757626855</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>109.4519776932673</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2280884669775</v>
+        <v>2005.799577648977</v>
       </c>
       <c r="C2" t="n">
-        <v>498.0856156504008</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D2" t="n">
-        <v>396.5095268099613</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E2" t="n">
-        <v>366.7751860086605</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
         <v>342.9481604582723</v>
@@ -4324,34 +4324,34 @@
         <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>714.241271070407</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2035.921380153964</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2582.420166112559</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2190.771296621484</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2190.771296621484</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.956246072921</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X2" t="n">
-        <v>1770.813782652232</v>
+        <v>2032.304463753423</v>
       </c>
       <c r="Y2" t="n">
-        <v>1362.527658951885</v>
+        <v>2028.058744093481</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>900.7186013536157</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>728.1568898368406</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>562.2788970383633</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>392.5208932891006</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G4" t="n">
         <v>281.9633400635787</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4518,22 +4518,22 @@
         <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2634.504334502149</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1565.348645425082</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1385.055244562854</v>
+        <v>1114.066895752006</v>
       </c>
       <c r="C5" t="n">
-        <v>946.912771746277</v>
+        <v>675.924422935429</v>
       </c>
       <c r="D5" t="n">
-        <v>511.0029869207216</v>
+        <v>240.0146381098735</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>210.2802973085727</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4570,19 +4570,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
         <v>1954.407975719776</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365254</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W5" t="n">
-        <v>2234.742998128393</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X5" t="n">
-        <v>1815.600534707704</v>
+        <v>1948.65258993726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.314411007357</v>
+        <v>1540.366466236913</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>1231.207939253532</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1231.207939253532</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1892.04799379531</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1892.04799379531</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1892.04799379531</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>2552.888048337089</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>2552.888048337089</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E7" t="n">
         <v>624.2616690759949</v>
@@ -4752,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2464.746330752886</v>
       </c>
       <c r="U7" t="n">
-        <v>2264.94001130788</v>
+        <v>2186.313330005992</v>
       </c>
       <c r="V7" t="n">
-        <v>1977.98450317831</v>
+        <v>1899.357821876422</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1627.331417462714</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1381.939662796126</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1154.519992110234</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1385.472033935714</v>
+        <v>710.0264917116014</v>
       </c>
       <c r="C8" t="n">
-        <v>947.3295611191371</v>
+        <v>271.8840188950247</v>
       </c>
       <c r="D8" t="n">
-        <v>511.4197762935816</v>
+        <v>240.0146381098733</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>210.2802973085725</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>186.4532717581843</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>186.4532717581843</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>687.540662806093</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1348.380717347871</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>2009.22077188965</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2640.01524209022</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2640.01524209022</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2640.01524209022</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>2639.200191541658</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>2220.057728120968</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.771604420622</v>
+        <v>1136.326062196509</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D10" t="n">
-        <v>447.554615037751</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>447.554615037751</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862846</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K10" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L10" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>368.6685679808633</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484973</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171359</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>424.1063803693451</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1258.456672327523</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L11" t="n">
-        <v>2333.516638580382</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M11" t="n">
-        <v>2333.516638580382</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N11" t="n">
-        <v>2333.516638580382</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>3313.696305150689</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>4142.006179984085</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.50496594268</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.50496594268</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4541.609868960946</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5096,64 +5096,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467886</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>398.3950942933419</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>304.2746796202956</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>220.8908412364572</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.7700993188536</v>
+        <v>93.8062990346578</v>
       </c>
       <c r="J12" t="n">
-        <v>93.7700993188536</v>
+        <v>418.3646240008701</v>
       </c>
       <c r="K12" t="n">
-        <v>93.7700993188536</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8461154418374</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>609.2844039250623</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>443.406411126585</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>273.6484073773223</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>96.94135333907846</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>180.3497844835434</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
         <v>1332.801988003553</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2529.770519225021</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927012</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.084404846716</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>973.6647341608245</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2188.014873871651</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C14" t="n">
-        <v>1749.872401055075</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D14" t="n">
-        <v>1645.940259684871</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.165514843166</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F14" t="n">
-        <v>784.2980852523734</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>382.9002538756373</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.7700993188536</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>928.1203912770316</v>
+        <v>350.4865144725204</v>
       </c>
       <c r="L14" t="n">
-        <v>2003.180357529891</v>
+        <v>1425.54648072538</v>
       </c>
       <c r="M14" t="n">
-        <v>2003.180357529891</v>
+        <v>2582.59431593593</v>
       </c>
       <c r="N14" t="n">
-        <v>3128.911340966338</v>
+        <v>3708.325299372378</v>
       </c>
       <c r="O14" t="n">
-        <v>4109.091007536645</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="P14" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="Q14" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.50496594268</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>4468.437738815718</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>4209.215436132735</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>3846.598486066561</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>3441.743031477595</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X14" t="n">
-        <v>3022.600568056906</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y14" t="n">
-        <v>2614.314444356559</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="15">
@@ -5333,64 +5333,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467886</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>398.3950942933419</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>304.2746796202956</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>220.8908412364572</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.7700993188536</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.7700993188536</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>774.5036193892309</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>774.5036193892309</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>774.5036193892309</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>774.5036193892309</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>774.5036193892309</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1172.828259930735</v>
+        <v>1032.92608562111</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.26654841396</v>
+        <v>860.3643741043346</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154826</v>
+        <v>694.4863813058573</v>
       </c>
       <c r="E16" t="n">
-        <v>664.6305518662199</v>
+        <v>524.7283775565945</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279761</v>
+        <v>348.0213235183507</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538037</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441782</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>180.3497844835434</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
         <v>1332.801988003553</v>
@@ -5463,25 +5463,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2710.429709221653</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2674.873217292374</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2396.440216545479</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>2109.48470841591</v>
+        <v>1969.582534106285</v>
       </c>
       <c r="W16" t="n">
-        <v>1837.458304002201</v>
+        <v>1697.556129692576</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.066549335614</v>
+        <v>1452.164375025989</v>
       </c>
       <c r="Y16" t="n">
-        <v>1364.646878649722</v>
+        <v>1224.744704340097</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5752,37 +5752,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>531.6733301892817</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5992,19 +5992,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
         <v>5113.04201353898</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6232,10 +6232,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G28" t="n">
         <v>330.8229638057298</v>
@@ -6414,22 +6414,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6648,16 +6648,16 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W31" t="n">
         <v>1845.949044954127</v>
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7374,10 +7374,10 @@
         <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2188.014873871651</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C41" t="n">
-        <v>1749.872401055075</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D41" t="n">
-        <v>1313.962616229519</v>
+        <v>1534.029843356485</v>
       </c>
       <c r="E41" t="n">
-        <v>880.1878713878141</v>
+        <v>1100.25509851478</v>
       </c>
       <c r="F41" t="n">
-        <v>452.3204417970218</v>
+        <v>672.3876689239878</v>
       </c>
       <c r="G41" t="n">
-        <v>93.7700993188536</v>
+        <v>270.9898375472517</v>
       </c>
       <c r="H41" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>529.0247867717715</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1363.375078729949</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1363.375078729949</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M41" t="n">
-        <v>2520.422913940501</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N41" t="n">
-        <v>2520.422913940501</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397632</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231028</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189623</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>4468.437738815718</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U41" t="n">
-        <v>4209.215436132735</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V41" t="n">
-        <v>3846.598486066561</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W41" t="n">
-        <v>3441.743031477595</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X41" t="n">
-        <v>3022.600568056906</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y41" t="n">
-        <v>2614.314444356559</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3531.436949455163</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>3424.980488291806</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>3329.890199438359</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>3235.769784765313</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>3152.385946381474</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>3067.000856647658</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>3025.265204463871</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>3051.328877624328</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>3375.887202590541</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>4030.593249216264</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>4030.593249216264</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>4030.593249216264</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>4030.593249216264</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>4030.593249216264</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>4030.593249216264</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>4571.332187848339</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>4688.50496594268</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>4625.049528391062</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>4494.870884721664</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>4318.534337721632</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>4119.416819783632</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>3934.094065516826</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>3779.226629755706</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>3652.740850534927</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8461154418374</v>
+        <v>995.0825554554531</v>
       </c>
       <c r="C43" t="n">
-        <v>609.2844039250623</v>
+        <v>822.520843938678</v>
       </c>
       <c r="D43" t="n">
-        <v>443.406411126585</v>
+        <v>656.6428511402007</v>
       </c>
       <c r="E43" t="n">
-        <v>273.6484073773223</v>
+        <v>486.884847390938</v>
       </c>
       <c r="F43" t="n">
-        <v>96.94135333907846</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G43" t="n">
-        <v>93.7700993188536</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H43" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>180.3497844835434</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
         <v>1332.801988003553</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225021</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927012</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846716</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.6647341608245</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2519.992517327003</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>2081.850044510426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>784.2980852523734</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>382.9002538756373</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.7700993188536</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>93.7700993188536</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>928.1203912770316</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2003.180357529891</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>2164.362573827326</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.362573827326</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397632</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231028</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189623</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>4688.50496594268</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="U44" t="n">
-        <v>4541.193079588086</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V44" t="n">
-        <v>4178.576129521913</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W44" t="n">
-        <v>3773.720674932946</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.578211512257</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.29208781191</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7703,64 +7703,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467886</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>398.3950942933419</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>304.2746796202956</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>220.8908412364572</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J45" t="n">
-        <v>396.5477556863887</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K45" t="n">
-        <v>396.5477556863887</v>
+        <v>396.5477556863889</v>
       </c>
       <c r="L45" t="n">
-        <v>396.5477556863887</v>
+        <v>396.5477556863889</v>
       </c>
       <c r="M45" t="n">
-        <v>396.5477556863887</v>
+        <v>396.5477556863889</v>
       </c>
       <c r="N45" t="n">
-        <v>396.5477556863887</v>
+        <v>396.5477556863889</v>
       </c>
       <c r="O45" t="n">
-        <v>396.5477556863887</v>
+        <v>396.5477556863889</v>
       </c>
       <c r="P45" t="n">
         <v>1216.270922165587</v>
       </c>
       <c r="Q45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2759.921372162865</v>
+        <v>830.529930918319</v>
       </c>
       <c r="C46" t="n">
-        <v>2587.35966064609</v>
+        <v>657.9682194015439</v>
       </c>
       <c r="D46" t="n">
-        <v>2477.114533613074</v>
+        <v>492.0902266030666</v>
       </c>
       <c r="E46" t="n">
-        <v>2477.114533613074</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="F46" t="n">
-        <v>2300.40747957483</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G46" t="n">
-        <v>2300.40747957483</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>2160.505305265205</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
-        <v>2071.84535603988</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>2158.42504120457</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>2433.183495775706</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>2851.393377543667</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>3310.87724472458</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>3753.136047882224</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>4172.805297108006</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>4520.312191078347</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>4688.50496594268</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>4667.087144648051</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.845775946048</v>
+        <v>2578.454334701503</v>
       </c>
       <c r="T46" t="n">
-        <v>4261.966329524504</v>
+        <v>2332.574888279958</v>
       </c>
       <c r="U46" t="n">
-        <v>3983.533328777609</v>
+        <v>2054.141887533063</v>
       </c>
       <c r="V46" t="n">
-        <v>3696.57782064804</v>
+        <v>1767.186379403494</v>
       </c>
       <c r="W46" t="n">
-        <v>3424.551416234331</v>
+        <v>1495.159974989785</v>
       </c>
       <c r="X46" t="n">
-        <v>3179.159661567744</v>
+        <v>1249.768220323198</v>
       </c>
       <c r="Y46" t="n">
-        <v>2951.739990881852</v>
+        <v>1022.348549637306</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>138.4873165037804</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>200.3264657984394</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>640.5448952297621</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.6730111621126</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>736.7998843997535</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949910105</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,13 +8929,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>259.309510256229</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8944,7 +8944,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>585.2666246525605</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>446.229598763996</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9655,7 +9655,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11065,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>630.4235620779109</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11305,13 +11305,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>162.8103194923588</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>305.8360165328638</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>305.8360165328639</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>125.2343690875792</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>111.2039336442373</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23500,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>328.6578670207981</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>411.8858435779265</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>227.3655273957973</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>84.63380825304883</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>44.28436272291295</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>122.4480280049973</v>
+        <v>201.933317737896</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>229.4233680290254</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>42.41901400958221</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>110.7913121651019</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25681,7 +25681,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>88.19489769745772</v>
       </c>
       <c r="G43" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>72.44040884377128</v>
       </c>
       <c r="U44" t="n">
-        <v>110.7913121651059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>55.07653710780698</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>48.19697732171603</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631445.8733329701</v>
+        <v>631445.8733329703</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631445.87333297</v>
+        <v>631445.8733329704</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673348.0212327816</v>
+        <v>673348.0212327815</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>631445.87333297</v>
+        <v>631445.8733329703</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>631445.87333297</v>
+        <v>631445.8733329704</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>335092.0749315052</v>
+      </c>
+      <c r="C2" t="n">
         <v>335092.0749315053</v>
       </c>
-      <c r="C2" t="n">
-        <v>335092.0749315051</v>
-      </c>
       <c r="D2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="E2" t="n">
-        <v>308794.6693678431</v>
+        <v>308794.6693678432</v>
       </c>
       <c r="F2" t="n">
-        <v>308794.6693678431</v>
+        <v>308794.6693678433</v>
       </c>
       <c r="G2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="H2" t="n">
-        <v>329285.990085845</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="I2" t="n">
         <v>329285.9900858451</v>
@@ -26340,7 +26340,7 @@
         <v>329285.9900858451</v>
       </c>
       <c r="K2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.990085845</v>
       </c>
       <c r="L2" t="n">
         <v>329285.9900858451</v>
@@ -26349,13 +26349,13 @@
         <v>329285.9900858451</v>
       </c>
       <c r="N2" t="n">
-        <v>329285.990085845</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
-        <v>308794.6693678431</v>
+        <v>308794.6693678433</v>
       </c>
       <c r="P2" t="n">
-        <v>308794.6693678431</v>
+        <v>308794.6693678433</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717477</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.8091726081</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356905</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>165263.0882595584</v>
+        <v>165263.0882595585</v>
       </c>
       <c r="E4" t="n">
-        <v>76371.62315556084</v>
+        <v>76371.62315556088</v>
       </c>
       <c r="F4" t="n">
-        <v>76371.62315556084</v>
+        <v>76371.62315556088</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26456,10 +26456,10 @@
         <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>76371.62315556084</v>
+        <v>76371.6231555609</v>
       </c>
       <c r="P4" t="n">
-        <v>76371.62315556084</v>
+        <v>76371.62315556088</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232873</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232873</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232873</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232873</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128083.2364738557</v>
+        <v>-128083.2364738558</v>
       </c>
       <c r="C6" t="n">
-        <v>95616.46211018902</v>
+        <v>95616.46211018918</v>
       </c>
       <c r="D6" t="n">
-        <v>95616.46211018902</v>
+        <v>95616.46211018901</v>
       </c>
       <c r="E6" t="n">
-        <v>10492.01715820585</v>
+        <v>10386.82753595094</v>
       </c>
       <c r="F6" t="n">
-        <v>161157.7707299535</v>
+        <v>161052.581107699</v>
       </c>
       <c r="G6" t="n">
-        <v>141038.3708384017</v>
+        <v>141015.1464990193</v>
       </c>
       <c r="H6" t="n">
-        <v>170128.1800110096</v>
+        <v>170104.9556716271</v>
       </c>
       <c r="I6" t="n">
-        <v>170128.1800110098</v>
+        <v>170104.9556716271</v>
       </c>
       <c r="J6" t="n">
-        <v>-4523.168706696422</v>
+        <v>-4546.393046079063</v>
       </c>
       <c r="K6" t="n">
-        <v>170128.1800110097</v>
+        <v>170104.955671627</v>
       </c>
       <c r="L6" t="n">
-        <v>170128.1800110097</v>
+        <v>170104.9556716271</v>
       </c>
       <c r="M6" t="n">
-        <v>44377.09167531927</v>
+        <v>44353.86733593628</v>
       </c>
       <c r="N6" t="n">
-        <v>170128.1800110097</v>
+        <v>170104.9556716271</v>
       </c>
       <c r="O6" t="n">
-        <v>161157.7707299536</v>
+        <v>161052.581107699</v>
       </c>
       <c r="P6" t="n">
-        <v>161157.7707299535</v>
+        <v>161052.581107699</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26798,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.611034877813</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990755</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.611034877813</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.611034877813</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990755</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.1145847350856</v>
       </c>
       <c r="D2" t="n">
-        <v>330.9903590252648</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27432,22 +27432,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>65.48800580459469</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>268.691086801871</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>328.8330305885844</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>40.15930123557294</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>90.22000922290081</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>154.5173183339557</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>188.1214263578965</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.07191583437682</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>138.4873165037804</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>200.3264657984394</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>640.5448952297621</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,7 +35266,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35339,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.6730111621126</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>736.7998843997535</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949910105</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889939</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35582,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>259.309510256229</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>585.2666246525605</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>446.229598763996</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35819,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36375,7 +36375,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,13 +36600,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36676,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37782,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>630.4235620779109</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>162.8103194923588</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>305.8360165328638</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>305.8360165328639</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,13 +38189,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
